--- a/medicine/Enfance/Philippe_Longchamp/Philippe_Longchamp.xlsx
+++ b/medicine/Enfance/Philippe_Longchamp/Philippe_Longchamp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Longchamp est un poète français, né le 3 mars 1939 à Boulogne-Billancourt.
 D'abord ingénieur électronicien (travaillant jusqu'en 1969 au Service de la Recherche de l'ORTF dirigé par Pierre Schaeffer), il fut ensuite et jusqu'à la retraite professeur de lycée dans l'enseignement technique, en banlieue parisienne, puis à la Porte de Clignancourt.
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sabliers, Éditions Saint-Germain-des-Prés, 1971
 Dits du coq d'ardoise, Éditions Saint-Germain-des-Prés, 1975
